--- a/xlsx/country_comparison/field_concerns_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_gpt_positive.xlsx
@@ -527,7 +527,7 @@
         <v>0.372971179852994</v>
       </c>
       <c r="H2" t="n">
-        <v>0.269699145101095</v>
+        <v>0.269699145101096</v>
       </c>
       <c r="I2" t="n">
         <v>0.47156700218553</v>
@@ -682,7 +682,7 @@
         <v>0.120579134593707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0481130975363111</v>
+        <v>0.048113097536311</v>
       </c>
       <c r="F6" t="n">
         <v>0.175043437971622</v>
@@ -855,7 +855,7 @@
         <v>0.0368252647877296</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0967568001847888</v>
+        <v>0.0967568001847889</v>
       </c>
       <c r="I10" t="n">
         <v>0.126554063670333</v>
@@ -887,7 +887,7 @@
         <v>0.060762518809521</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0766749927289616</v>
+        <v>0.0766749927289615</v>
       </c>
       <c r="F11" t="n">
         <v>0.0671721592657591</v>
@@ -1227,7 +1227,7 @@
         <v>0.0091468289176701</v>
       </c>
       <c r="I19" t="n">
-        <v>0.058098134759044</v>
+        <v>0.0580981347590439</v>
       </c>
       <c r="J19" t="n">
         <v>0.04296085556786</v>
@@ -1256,7 +1256,7 @@
         <v>0.0243176434740051</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0204542022454653</v>
+        <v>0.0204542022454652</v>
       </c>
       <c r="F20" t="n">
         <v>0.0172717755561909</v>
@@ -1534,7 +1534,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00956109551020043</v>
+        <v>0.00956109551020042</v>
       </c>
       <c r="C27" t="n">
         <v>0.0082794296281518</v>

--- a/xlsx/country_comparison/field_concerns_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_gpt_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -74,18 +77,21 @@
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
-    <t xml:space="preserve">Security; violence; crime; judicial system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
@@ -96,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
     <t xml:space="preserve">Nothing; don't know; empty</t>
@@ -503,1006 +506,1081 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.433171015263225</v>
+        <v>0.427724687499943</v>
       </c>
       <c r="C2" t="n">
         <v>0.34202801183457</v>
       </c>
       <c r="D2" t="n">
-        <v>0.292889017721163</v>
+        <v>0.285319504498579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.298171500858985</v>
+        <v>0.29934747096325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.357525757330816</v>
+        <v>0.350059419380916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.372971179852994</v>
+        <v>0.343954003066822</v>
       </c>
       <c r="H2" t="n">
-        <v>0.269699145101096</v>
+        <v>0.274149587696218</v>
       </c>
       <c r="I2" t="n">
-        <v>0.47156700218553</v>
+        <v>0.475244835180995</v>
       </c>
       <c r="J2" t="n">
-        <v>0.211149379605987</v>
+        <v>0.198206340589692</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3370035417596</v>
+        <v>0.33352154982694</v>
       </c>
       <c r="L2" t="n">
-        <v>0.218475178770605</v>
+        <v>0.337528413125201</v>
       </c>
       <c r="M2" t="n">
-        <v>0.586661164052044</v>
+        <v>0.241799166133516</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.587231661700113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277595302298419</v>
+        <v>0.27447655707737</v>
       </c>
       <c r="C3" t="n">
         <v>0.206482352101998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12176451336304</v>
+        <v>0.130528250674817</v>
       </c>
       <c r="E3" t="n">
-        <v>0.307039699887536</v>
+        <v>0.301072954611268</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133135397342596</v>
+        <v>0.136166966348411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.149779672259633</v>
+        <v>0.160798930766257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.211033166286561</v>
+        <v>0.213235942755157</v>
       </c>
       <c r="I3" t="n">
-        <v>0.266327023510873</v>
+        <v>0.266346705276814</v>
       </c>
       <c r="J3" t="n">
-        <v>0.155442449705687</v>
+        <v>0.149655987352641</v>
       </c>
       <c r="K3" t="n">
-        <v>0.227588296205107</v>
+        <v>0.230007708874304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0445868764619177</v>
+        <v>0.304652038997833</v>
       </c>
       <c r="M3" t="n">
-        <v>0.39304323103213</v>
+        <v>0.0408153068078386</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.389930379878474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.230104404687067</v>
+        <v>0.220097016886608</v>
       </c>
       <c r="C4" t="n">
         <v>0.272787794235802</v>
       </c>
       <c r="D4" t="n">
-        <v>0.224049913845727</v>
+        <v>0.235679614850284</v>
       </c>
       <c r="E4" t="n">
-        <v>0.376285399438619</v>
+        <v>0.366279829776216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.375201039302265</v>
+        <v>0.387685204545355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.17681864621395</v>
+        <v>0.183082660034986</v>
       </c>
       <c r="H4" t="n">
-        <v>0.156105943626672</v>
+        <v>0.155040345662916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205404858372537</v>
+        <v>0.210126787829621</v>
       </c>
       <c r="J4" t="n">
-        <v>0.414793383452082</v>
+        <v>0.43205994127698</v>
       </c>
       <c r="K4" t="n">
-        <v>0.173654176152104</v>
+        <v>0.179407079165482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.114360526301888</v>
+        <v>0.1279752442767</v>
       </c>
       <c r="M4" t="n">
-        <v>0.212092225663222</v>
+        <v>0.121425686699151</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.210805514975248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189915506333147</v>
+        <v>0.192614122122522</v>
       </c>
       <c r="C5" t="n">
         <v>0.159821508137288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.122866514614319</v>
+        <v>0.138992287394185</v>
       </c>
       <c r="E5" t="n">
-        <v>0.242652937977324</v>
+        <v>0.243467847983192</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12288512583065</v>
+        <v>0.125090382732543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.112786001673867</v>
+        <v>0.143245311778314</v>
       </c>
       <c r="H5" t="n">
-        <v>0.162331288374409</v>
+        <v>0.161176363839324</v>
       </c>
       <c r="I5" t="n">
-        <v>0.153538707669316</v>
+        <v>0.154539501727371</v>
       </c>
       <c r="J5" t="n">
-        <v>0.148845041069481</v>
+        <v>0.150243480045262</v>
       </c>
       <c r="K5" t="n">
-        <v>0.298887554483342</v>
+        <v>0.299746754483981</v>
       </c>
       <c r="L5" t="n">
-        <v>0.405661814285548</v>
+        <v>0.191760739336914</v>
       </c>
       <c r="M5" t="n">
-        <v>0.166901338136946</v>
+        <v>0.394065791205449</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.166250540969326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.130983528910143</v>
+        <v>0.141278889540855</v>
       </c>
       <c r="C6" t="n">
         <v>0.151719585959605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120579134593707</v>
+        <v>0.120363206563391</v>
       </c>
       <c r="E6" t="n">
-        <v>0.048113097536311</v>
+        <v>0.0497416527950626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.175043437971622</v>
+        <v>0.17458640343863</v>
       </c>
       <c r="G6" t="n">
-        <v>0.256202641820281</v>
+        <v>0.27231371393337</v>
       </c>
       <c r="H6" t="n">
-        <v>0.199326973517994</v>
+        <v>0.201575757062436</v>
       </c>
       <c r="I6" t="n">
-        <v>0.207531693108124</v>
+        <v>0.207053222205251</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0682841744717352</v>
+        <v>0.0658069602700088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0900419781757536</v>
+        <v>0.08615668922017</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0852949888052888</v>
+        <v>0.336414928713372</v>
       </c>
       <c r="M6" t="n">
-        <v>0.126436607349205</v>
+        <v>0.0714353398941203</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.126142705291214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118591584486844</v>
+        <v>0.119515424341416</v>
       </c>
       <c r="C7" t="n">
         <v>0.182242093139303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.151347052214955</v>
+        <v>0.163434653969584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.234235741498093</v>
+        <v>0.231276664077685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.332807191300128</v>
+        <v>0.343651604774869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.133681712641103</v>
+        <v>0.138662616674574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0948994094706684</v>
+        <v>0.0951181162552667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0773221573575456</v>
+        <v>0.0844932345107362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2693681589335</v>
+        <v>0.270553553350002</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0223927086514383</v>
+        <v>0.0229286181752138</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0868353519858274</v>
+        <v>0.194328767676626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0855409849749427</v>
+        <v>0.0951732046869002</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0871565061207666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.112136830858152</v>
+        <v>0.110217873801541</v>
       </c>
       <c r="C8" t="n">
         <v>0.112376966609848</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141077356074275</v>
+        <v>0.114110040094705</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0949106290524726</v>
+        <v>0.087676392803106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.119638598562124</v>
+        <v>0.120177716782152</v>
       </c>
       <c r="G8" t="n">
-        <v>0.066111777008613</v>
+        <v>0.0569184995208997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.160561493705891</v>
+        <v>0.170108765516923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0980340858470163</v>
+        <v>0.102013199160927</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0830939269865234</v>
+        <v>0.0571041547754698</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0728134910380752</v>
+        <v>0.0771536475852356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.21745797199426</v>
+        <v>0.0632774774648254</v>
       </c>
       <c r="M8" t="n">
-        <v>0.11845984859766</v>
+        <v>0.217657333271997</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.114477688624793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.110702156786947</v>
+        <v>0.108636842511326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.100883911771794</v>
+        <v>0.128656723083478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.120103332402373</v>
+        <v>0.195252561078666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0523652132432409</v>
+        <v>0.133065320241872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0737119728255388</v>
+        <v>0.135150227223605</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0752017659864296</v>
+        <v>0.0309374804971087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.126629139286673</v>
+        <v>0.091870191171446</v>
       </c>
       <c r="I9" t="n">
-        <v>0.163164827118487</v>
+        <v>0.129030500437111</v>
       </c>
       <c r="J9" t="n">
-        <v>0.120901020954183</v>
+        <v>0.114290696529762</v>
       </c>
       <c r="K9" t="n">
-        <v>0.134312817685222</v>
+        <v>0.025581560104788</v>
       </c>
       <c r="L9" t="n">
-        <v>0.288270456293816</v>
+        <v>0.118858947247507</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0995168552592937</v>
+        <v>0.0315208874518475</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.12448134136451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.109710221755557</v>
+        <v>0.107500834301552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.128656723083478</v>
+        <v>0.100883911771794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199992006410975</v>
+        <v>0.12325153192198</v>
       </c>
       <c r="E10" t="n">
-        <v>0.131945526834132</v>
+        <v>0.0512735788074977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.133204741465652</v>
+        <v>0.0730307204874959</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0368252647877296</v>
+        <v>0.0914239127846415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0967568001847889</v>
+        <v>0.123134572229841</v>
       </c>
       <c r="I10" t="n">
-        <v>0.126554063670333</v>
+        <v>0.163223122164705</v>
       </c>
       <c r="J10" t="n">
-        <v>0.110025175546152</v>
+        <v>0.107615657629063</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0262248078819361</v>
+        <v>0.13010889186649</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0361476443055595</v>
+        <v>0.050390388989462</v>
       </c>
       <c r="M10" t="n">
-        <v>0.125000628044871</v>
+        <v>0.290564236079025</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.098624325364267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.103486970407031</v>
+        <v>0.097305901175677</v>
       </c>
       <c r="C11" t="n">
         <v>0.0640496074349665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.060762518809521</v>
+        <v>0.0714815174883057</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0766749927289615</v>
+        <v>0.0782981765072685</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0671721592657591</v>
+        <v>0.0726934700844519</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0209517096442582</v>
+        <v>0.0146167368942667</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0338646053594752</v>
+        <v>0.0313242481312123</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0955847835176067</v>
+        <v>0.0959376748274384</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0305517304275668</v>
+        <v>0.0317179145672615</v>
       </c>
       <c r="K11" t="n">
-        <v>0.169188508264874</v>
+        <v>0.175042466911768</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0236123531361184</v>
+        <v>0.0287408305185635</v>
       </c>
       <c r="M11" t="n">
-        <v>0.129227153161045</v>
+        <v>0.0222287984687087</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.125904658644553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0821070604814566</v>
+        <v>0.0849772142929525</v>
       </c>
       <c r="C12" t="n">
         <v>0.086469510406497</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0446492310472754</v>
+        <v>0.0405210419797969</v>
       </c>
       <c r="E12" t="n">
-        <v>0.117627626354689</v>
+        <v>0.114057554897173</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0671293540043795</v>
+        <v>0.0654427637601761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.103985893391665</v>
+        <v>0.0891495533799092</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0373847513814577</v>
+        <v>0.0291929851505427</v>
       </c>
       <c r="I12" t="n">
-        <v>0.128687579685066</v>
+        <v>0.13186893581131</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0767476377525287</v>
+        <v>0.0616753586893285</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0341600891277859</v>
+        <v>0.035777321789613</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0514168337252588</v>
+        <v>0.116065787948178</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0972902951062752</v>
+        <v>0.0514210204945218</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0940164052478281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0798920762224079</v>
+        <v>0.0775549676770145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0978325908734545</v>
+        <v>0.0715473129426769</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0571096359244344</v>
+        <v>0.0866070886456633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.144292191665883</v>
+        <v>0.0151431302507235</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0626569864151614</v>
+        <v>0.0762359274640915</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0351785904801931</v>
+        <v>0.12071689412185</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0762454969628975</v>
+        <v>0.0763147609848933</v>
       </c>
       <c r="I13" t="n">
-        <v>0.163438082733359</v>
+        <v>0.105611688133127</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0729556354422311</v>
+        <v>0.0705936562394791</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.092067109319946</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00617129703434938</v>
+        <v>0.113368856781454</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0949879888513442</v>
+        <v>0.187241609492467</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0571094940136425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0774143968177658</v>
+        <v>0.0754266303061112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0537411283207768</v>
+        <v>0.0978325908734545</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0157109810015936</v>
+        <v>0.0544117739267413</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0481694084208341</v>
+        <v>0.148401171119671</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0160758372440485</v>
+        <v>0.0678845819201463</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0479450087077879</v>
+        <v>0.0408477862307504</v>
       </c>
       <c r="H14" t="n">
-        <v>0.140304213791961</v>
+        <v>0.077459142214572</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0843195673256122</v>
+        <v>0.162341335550379</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0134977679475728</v>
+        <v>0.0881429473647397</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0246619827061348</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.017666725646677</v>
+        <v>0.0139137259293706</v>
       </c>
       <c r="M14" t="n">
-        <v>0.127854974252303</v>
+        <v>0.00530904143677986</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0939429893467841</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0771607718988527</v>
+        <v>0.0749843784353015</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0600059584588287</v>
+        <v>0.0537411283207768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0708832741958766</v>
+        <v>0.0128901694819369</v>
       </c>
       <c r="E15" t="n">
-        <v>0.105388126483885</v>
+        <v>0.0489886442764457</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0406854415800121</v>
+        <v>0.0168925626273152</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00196393994566121</v>
+        <v>0.0486273155318094</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0289022149697295</v>
+        <v>0.132764770624794</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0644487035186144</v>
+        <v>0.0821539736008905</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0590216027029047</v>
+        <v>0.00965919679140213</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0787480495226957</v>
+        <v>0.0245611934134318</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0594952274146137</v>
       </c>
       <c r="M15" t="n">
-        <v>0.101543921384838</v>
+        <v>0.0175438596491228</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.126545307692075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0736004175872182</v>
+        <v>0.0716017777298688</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115330859801395</v>
+        <v>0.0600059584588287</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0981698766470183</v>
+        <v>0.0727276662759784</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0970968340420299</v>
+        <v>0.106907568591051</v>
       </c>
       <c r="F16" t="n">
-        <v>0.192030527278921</v>
+        <v>0.0424147306660263</v>
       </c>
       <c r="G16" t="n">
-        <v>0.045221446097859</v>
+        <v>0.00192307692307692</v>
       </c>
       <c r="H16" t="n">
-        <v>0.107415855629642</v>
+        <v>0.0360030493178724</v>
       </c>
       <c r="I16" t="n">
-        <v>0.125286073359886</v>
+        <v>0.0668478059971885</v>
       </c>
       <c r="J16" t="n">
-        <v>0.109224371911904</v>
+        <v>0.065455518970099</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0285987469754791</v>
+        <v>0.0792888019159985</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0513894570002253</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0453541539215545</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.098599620166235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0734290434212782</v>
+        <v>0.0687047783461445</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0715473129426769</v>
+        <v>0.115330859801395</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0825483426376479</v>
+        <v>0.0997508532859729</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0171667850681718</v>
+        <v>0.0918898846032378</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0805538364220145</v>
+        <v>0.185246935886553</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0966623901602906</v>
+        <v>0.0543309087199441</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0813247656812004</v>
+        <v>0.106873713085737</v>
       </c>
       <c r="I17" t="n">
-        <v>0.101570139830217</v>
+        <v>0.134312922549772</v>
       </c>
       <c r="J17" t="n">
-        <v>0.051334304961409</v>
+        <v>0.128376917420679</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0945499454910836</v>
+        <v>0.028385064623918</v>
       </c>
       <c r="L17" t="n">
-        <v>0.181289676891385</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0595720112637253</v>
+        <v>0.0518847513843085</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0471661801016807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0578508621982242</v>
+        <v>0.0616052188154991</v>
       </c>
       <c r="C18" t="n">
         <v>0.0704371296986562</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113015087402589</v>
+        <v>0.110179603057404</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0614761706362043</v>
+        <v>0.0630768113017024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0532646356205689</v>
+        <v>0.051003787274547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0672099261649153</v>
+        <v>0.0572731120883521</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0988161608295756</v>
+        <v>0.0994624001761171</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0364194040531003</v>
+        <v>0.0368570474022875</v>
       </c>
       <c r="J18" t="n">
-        <v>0.113315556318501</v>
+        <v>0.10586067456246</v>
       </c>
       <c r="K18" t="n">
-        <v>0.109681371773456</v>
+        <v>0.110492213293348</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0394856145457775</v>
+        <v>0.0798735356605752</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0260221740975959</v>
+        <v>0.0379553581112163</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0270463433534285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544303236501001</v>
+        <v>0.0522772381872932</v>
       </c>
       <c r="C19" t="n">
         <v>0.0353665337044412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0526498011938368</v>
+        <v>0.0556062874057948</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0297335766829747</v>
+        <v>0.0294445714924787</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0196303822221629</v>
+        <v>0.0216983901155659</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0330694533361271</v>
+        <v>0.025071388702806</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0091468289176701</v>
+        <v>0.00856625382237797</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0580981347590439</v>
+        <v>0.0630839934924889</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04296085556786</v>
+        <v>0.0465824276885747</v>
       </c>
       <c r="K19" t="n">
-        <v>0.104562250901627</v>
+        <v>0.103983205919545</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0529888968593774</v>
+        <v>0.0279671834712919</v>
       </c>
       <c r="M19" t="n">
-        <v>0.057270935850694</v>
+        <v>0.0482708035461867</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0563051611880599</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0474982177475783</v>
+        <v>0.046402108730237</v>
       </c>
       <c r="C20" t="n">
         <v>0.043591224847788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0243176434740051</v>
+        <v>0.0208852599094986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0204542022454652</v>
+        <v>0.0211848039936975</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0172717755561909</v>
+        <v>0.0145438140582427</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0147804025947363</v>
+        <v>0.00900472486473835</v>
       </c>
       <c r="H20" t="n">
-        <v>0.113130849838552</v>
+        <v>0.123849291652403</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0861912709783082</v>
+        <v>0.0879454469342284</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0429437384913124</v>
+        <v>0.0356796196812243</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00402131265734683</v>
+        <v>0.00447932573070164</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0173982136853855</v>
+        <v>0.0123797870710245</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0702116351825816</v>
+        <v>0.0237076256620335</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0702815910641474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.039363961658999</v>
+        <v>0.036518695342157</v>
       </c>
       <c r="C21" t="n">
         <v>0.0228915167886602</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00488739302561114</v>
+        <v>0.00461983071209413</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0321537469093749</v>
+        <v>0.0336839549179679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00852259136150892</v>
+        <v>0.00830199376216641</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0240099524289748</v>
+        <v>0.0332441546982521</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0194667671570589</v>
+        <v>0.0160284273837336</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0443081960070909</v>
+        <v>0.0457217315315643</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0165919232267388</v>
+        <v>0.0116780384507283</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00382179915808491</v>
+        <v>0.00357557444302809</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0123812438866351</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.072929293034766</v>
+        <v>0.0178326471517977</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0736872261016635</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.032642722736327</v>
+        <v>0.0349132538572667</v>
       </c>
       <c r="C22" t="n">
         <v>0.032983802141712</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0401169143399431</v>
+        <v>0.0332374620457068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0273434043419807</v>
+        <v>0.0273887364821451</v>
       </c>
       <c r="F22" t="n">
-        <v>0.016987985904207</v>
+        <v>0.0181860416281304</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00580588187462047</v>
+        <v>0.0044419874585665</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0716470940184551</v>
+        <v>0.075638773820499</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0376590627832958</v>
+        <v>0.0471295309723145</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0403024161507968</v>
+        <v>0.030038325116571</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0201785458569252</v>
+        <v>0.020050072374391</v>
       </c>
       <c r="L22" t="n">
-        <v>0.142183290565451</v>
+        <v>0.056438313070839</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0286002414080991</v>
+        <v>0.156470093186873</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0292897433098581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0296403394878257</v>
+        <v>0.0276343071206548</v>
       </c>
       <c r="C23" t="n">
         <v>0.0312717855586328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0106186438145849</v>
+        <v>0.00933112396625323</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0733950645670211</v>
+        <v>0.0748325969685806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0177268182982052</v>
+        <v>0.0197722717380193</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00586437249572782</v>
+        <v>0.0044086462947291</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00638709336146088</v>
+        <v>0.00594213582483793</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0414663377503316</v>
+        <v>0.0490554649396467</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0335394507723206</v>
+        <v>0.0190870577614566</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00189262250923485</v>
+        <v>0.00210027016877873</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0403209164148236</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0425070557394088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206127614611151</v>
+        <v>0.020142920537777</v>
       </c>
       <c r="C24" t="n">
         <v>0.0209280277646089</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0296333430966959</v>
+        <v>0.028378672117734</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0212847147430335</v>
+        <v>0.021322259680786</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00853134751970254</v>
+        <v>0.00735153288569275</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0145308563191285</v>
+        <v>0.0151698762842486</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0287851076179138</v>
+        <v>0.0255029443834266</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0189418780447508</v>
+        <v>0.018847868838042</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0516805910348462</v>
+        <v>0.0453165889621783</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0106331259101252</v>
+        <v>0.0100720064937484</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0104425663535123</v>
+        <v>0.00814249893543131</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0247200495692621</v>
+        <v>0.0117808033710454</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0247097587103945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0180914086015193</v>
+        <v>0.0168056022870727</v>
       </c>
       <c r="C25" t="n">
         <v>0.0179081220975699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0144851993020376</v>
+        <v>0.0147809295297269</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0271513269072848</v>
+        <v>0.0266904904237124</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0036189428402801</v>
+        <v>0.00506609912131244</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0488861411902436</v>
+        <v>0.0511463354315419</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0141955185449855</v>
+        <v>0.0168445445219234</v>
       </c>
       <c r="J25" t="n">
-        <v>0.010678771641692</v>
+        <v>0.00496673873361797</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00386262825070528</v>
+        <v>0.00347132580929292</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0249248143729781</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0240878415027001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00997918581012495</v>
+        <v>0.00929692577686602</v>
       </c>
       <c r="C26" t="n">
         <v>0.0100792995440829</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0204737637739496</v>
+        <v>0.0231134457944009</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0199132133522529</v>
+        <v>0.0221290370577308</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1514,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0110321912649222</v>
+        <v>0.012372513888577</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1523,27 +1601,30 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.025261742124593</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0124043481854013</v>
+        <v>0.0191443833366935</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0124543718406978</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00956109551020042</v>
+        <v>0.00896795485409601</v>
       </c>
       <c r="C27" t="n">
         <v>0.0082794296281518</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00900891414022172</v>
+        <v>0.0081453932497154</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00794458294536362</v>
+        <v>0.00724592874044967</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1552,63 +1633,69 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00648824152100193</v>
+        <v>0.00665873489714024</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0214790081209637</v>
+        <v>0.0279939362072341</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00860669068720167</v>
+        <v>0.0143392127678716</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00606165782197717</v>
+        <v>0.00529982480827563</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0130076532951017</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0144595420421398</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00812054851768282</v>
+        <v>0.00757580324297464</v>
       </c>
       <c r="C28" t="n">
         <v>0.00709888324520302</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0142542090499471</v>
+        <v>0.0119067571083193</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00988224269109579</v>
+        <v>0.00981874142226936</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00476767611359889</v>
+        <v>0.00371315239695175</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00648824152100193</v>
+        <v>0.00665873489714024</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00433133922159001</v>
+        <v>0.00672357792878182</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0119768093556337</v>
+        <v>0.0117066469690124</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00844757836259298</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00861643606832641</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_concerns_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_gpt_positive.xlsx
@@ -74,37 +74,37 @@
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
-    <t xml:space="preserve">Happiness; peace of mind</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Criticism of immigration; national preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427724687499943</v>
+        <v>0.419277808961514</v>
       </c>
       <c r="C2" t="n">
         <v>0.34202801183457</v>
@@ -545,7 +545,7 @@
         <v>0.33352154982694</v>
       </c>
       <c r="L2" t="n">
-        <v>0.337528413125201</v>
+        <v>0.261286152497833</v>
       </c>
       <c r="M2" t="n">
         <v>0.241799166133516</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27447655707737</v>
+        <v>0.266033677729777</v>
       </c>
       <c r="C3" t="n">
         <v>0.206482352101998</v>
@@ -589,7 +589,7 @@
         <v>0.230007708874304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.304652038997833</v>
+        <v>0.101200150658867</v>
       </c>
       <c r="M3" t="n">
         <v>0.0408153068078386</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.220097016886608</v>
+        <v>0.218679743318229</v>
       </c>
       <c r="C4" t="n">
         <v>0.272787794235802</v>
@@ -633,7 +633,7 @@
         <v>0.179407079165482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1279752442767</v>
+        <v>0.0990433727725719</v>
       </c>
       <c r="M4" t="n">
         <v>0.121425686699151</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.192614122122522</v>
+        <v>0.18914399529698</v>
       </c>
       <c r="C5" t="n">
         <v>0.159821508137288</v>
@@ -677,7 +677,7 @@
         <v>0.299746754483981</v>
       </c>
       <c r="L5" t="n">
-        <v>0.191760739336914</v>
+        <v>0.180626385226395</v>
       </c>
       <c r="M5" t="n">
         <v>0.394065791205449</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.141278889540855</v>
+        <v>0.131920610374051</v>
       </c>
       <c r="C6" t="n">
         <v>0.151719585959605</v>
@@ -721,7 +721,7 @@
         <v>0.08615668922017</v>
       </c>
       <c r="L6" t="n">
-        <v>0.336414928713372</v>
+        <v>0.160349415494231</v>
       </c>
       <c r="M6" t="n">
         <v>0.0714353398941203</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.119515424341416</v>
+        <v>0.113280298058582</v>
       </c>
       <c r="C7" t="n">
         <v>0.182242093139303</v>
@@ -765,7 +765,7 @@
         <v>0.0229286181752138</v>
       </c>
       <c r="L7" t="n">
-        <v>0.194328767676626</v>
+        <v>0.0570108929482749</v>
       </c>
       <c r="M7" t="n">
         <v>0.0951732046869002</v>
@@ -779,43 +779,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110217873801541</v>
+        <v>0.110835304521123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.112376966609848</v>
+        <v>0.100883911771794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114110040094705</v>
+        <v>0.12325153192198</v>
       </c>
       <c r="E8" t="n">
-        <v>0.087676392803106</v>
+        <v>0.0512735788074977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.120177716782152</v>
+        <v>0.0730307204874959</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0569184995208997</v>
+        <v>0.0914239127846415</v>
       </c>
       <c r="H8" t="n">
-        <v>0.170108765516923</v>
+        <v>0.123134572229841</v>
       </c>
       <c r="I8" t="n">
-        <v>0.102013199160927</v>
+        <v>0.163223122164705</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0571041547754698</v>
+        <v>0.107615657629063</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0771536475852356</v>
+        <v>0.13010889186649</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0632774774648254</v>
+        <v>0.10282289424456</v>
       </c>
       <c r="M8" t="n">
-        <v>0.217657333271997</v>
+        <v>0.290564236079025</v>
       </c>
       <c r="N8" t="n">
-        <v>0.114477688624793</v>
+        <v>0.098624325364267</v>
       </c>
     </row>
     <row r="9">
@@ -823,43 +823,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.108636842511326</v>
+        <v>0.108864337504725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.128656723083478</v>
+        <v>0.112376966609848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.195252561078666</v>
+        <v>0.114110040094705</v>
       </c>
       <c r="E9" t="n">
-        <v>0.133065320241872</v>
+        <v>0.087676392803106</v>
       </c>
       <c r="F9" t="n">
-        <v>0.135150227223605</v>
+        <v>0.120177716782152</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0309374804971087</v>
+        <v>0.0569184995208997</v>
       </c>
       <c r="H9" t="n">
-        <v>0.091870191171446</v>
+        <v>0.170108765516923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.129030500437111</v>
+        <v>0.102013199160927</v>
       </c>
       <c r="J9" t="n">
-        <v>0.114290696529762</v>
+        <v>0.0571041547754698</v>
       </c>
       <c r="K9" t="n">
-        <v>0.025581560104788</v>
+        <v>0.0771536475852356</v>
       </c>
       <c r="L9" t="n">
-        <v>0.118858947247507</v>
+        <v>0.0325038959700294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0315208874518475</v>
+        <v>0.217657333271997</v>
       </c>
       <c r="N9" t="n">
-        <v>0.12448134136451</v>
+        <v>0.114477688624793</v>
       </c>
     </row>
     <row r="10">
@@ -867,43 +867,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.107500834301552</v>
+        <v>0.105284361921959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.100883911771794</v>
+        <v>0.128656723083478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.12325153192198</v>
+        <v>0.195252561078666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0512735788074977</v>
+        <v>0.133065320241872</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0730307204874959</v>
+        <v>0.135150227223605</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0914239127846415</v>
+        <v>0.0309374804971087</v>
       </c>
       <c r="H10" t="n">
-        <v>0.123134572229841</v>
+        <v>0.091870191171446</v>
       </c>
       <c r="I10" t="n">
-        <v>0.163223122164705</v>
+        <v>0.129030500437111</v>
       </c>
       <c r="J10" t="n">
-        <v>0.107615657629063</v>
+        <v>0.114290696529762</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13010889186649</v>
+        <v>0.025581560104788</v>
       </c>
       <c r="L10" t="n">
-        <v>0.050390388989462</v>
+        <v>0.0357144818832321</v>
       </c>
       <c r="M10" t="n">
-        <v>0.290564236079025</v>
+        <v>0.0315208874518475</v>
       </c>
       <c r="N10" t="n">
-        <v>0.098624325364267</v>
+        <v>0.12448134136451</v>
       </c>
     </row>
     <row r="11">
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.097305901175677</v>
+        <v>0.0993207357198264</v>
       </c>
       <c r="C11" t="n">
         <v>0.0640496074349665</v>
@@ -941,7 +941,7 @@
         <v>0.175042466911768</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0287408305185635</v>
+        <v>0.064783101177909</v>
       </c>
       <c r="M11" t="n">
         <v>0.0222287984687087</v>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0849772142929525</v>
+        <v>0.0837804904300121</v>
       </c>
       <c r="C12" t="n">
         <v>0.086469510406497</v>
@@ -985,7 +985,7 @@
         <v>0.035777321789613</v>
       </c>
       <c r="L12" t="n">
-        <v>0.116065787948178</v>
+        <v>0.115691861162108</v>
       </c>
       <c r="M12" t="n">
         <v>0.0514210204945218</v>
@@ -999,43 +999,43 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0775549676770145</v>
+        <v>0.0768770844601345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0715473129426769</v>
+        <v>0.0704371296986562</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0866070886456633</v>
+        <v>0.110179603057404</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0151431302507235</v>
+        <v>0.0630768113017024</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0762359274640915</v>
+        <v>0.051003787274547</v>
       </c>
       <c r="G13" t="n">
-        <v>0.12071689412185</v>
+        <v>0.0572731120883521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0763147609848933</v>
+        <v>0.0994624001761171</v>
       </c>
       <c r="I13" t="n">
-        <v>0.105611688133127</v>
+        <v>0.0368570474022875</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0705936562394791</v>
+        <v>0.10586067456246</v>
       </c>
       <c r="K13" t="n">
-        <v>0.092067109319946</v>
+        <v>0.110492213293348</v>
       </c>
       <c r="L13" t="n">
-        <v>0.113368856781454</v>
+        <v>0.303428723884542</v>
       </c>
       <c r="M13" t="n">
-        <v>0.187241609492467</v>
+        <v>0.0379553581112163</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0571094940136425</v>
+        <v>0.0270463433534285</v>
       </c>
     </row>
     <row r="14">
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0754266303061112</v>
+        <v>0.0741255789379038</v>
       </c>
       <c r="C14" t="n">
         <v>0.0978325908734545</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0139137259293706</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0.00530904143677986</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0749843784353015</v>
+        <v>0.0739144008525161</v>
       </c>
       <c r="C15" t="n">
         <v>0.0537411283207768</v>
@@ -1117,7 +1117,7 @@
         <v>0.0245611934134318</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0594952274146137</v>
+        <v>0.0190146888772607</v>
       </c>
       <c r="M15" t="n">
         <v>0.0175438596491228</v>
@@ -1131,43 +1131,43 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0716017777298688</v>
+        <v>0.0732598759052429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0600059584588287</v>
+        <v>0.071547312942677</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0727276662759784</v>
+        <v>0.0866070886456633</v>
       </c>
       <c r="E16" t="n">
-        <v>0.106907568591051</v>
+        <v>0.0151431302507235</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0424147306660263</v>
+        <v>0.0762359274640915</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00192307692307692</v>
+        <v>0.12071689412185</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0360030493178724</v>
+        <v>0.0763147609848933</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0668478059971885</v>
+        <v>0.105611688133127</v>
       </c>
       <c r="J16" t="n">
-        <v>0.065455518970099</v>
+        <v>0.0705936562394791</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0792888019159985</v>
+        <v>0.092067109319946</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.0520804590918707</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.187241609492467</v>
       </c>
       <c r="N16" t="n">
-        <v>0.098599620166235</v>
+        <v>0.0571094940136425</v>
       </c>
     </row>
     <row r="17">
@@ -1175,43 +1175,43 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0687047783461445</v>
+        <v>0.0716221710590568</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115330859801395</v>
+        <v>0.0600059584588287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0997508532859729</v>
+        <v>0.0727276662759784</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0918898846032378</v>
+        <v>0.106907568591051</v>
       </c>
       <c r="F17" t="n">
-        <v>0.185246935886553</v>
+        <v>0.0424147306660263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0543309087199441</v>
+        <v>0.00192307692307692</v>
       </c>
       <c r="H17" t="n">
-        <v>0.106873713085737</v>
+        <v>0.0360030493178724</v>
       </c>
       <c r="I17" t="n">
-        <v>0.134312922549772</v>
+        <v>0.0668478059971885</v>
       </c>
       <c r="J17" t="n">
-        <v>0.128376917420679</v>
+        <v>0.065455518970099</v>
       </c>
       <c r="K17" t="n">
-        <v>0.028385064623918</v>
+        <v>0.0792888019159985</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00211864406779661</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0518847513843085</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0471661801016807</v>
+        <v>0.098599620166235</v>
       </c>
     </row>
     <row r="18">
@@ -1219,43 +1219,43 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0616052188154991</v>
+        <v>0.0694050620349985</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0704371296986562</v>
+        <v>0.115330859801395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110179603057404</v>
+        <v>0.0997508532859729</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0630768113017024</v>
+        <v>0.0918898846032378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.051003787274547</v>
+        <v>0.185246935886553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0572731120883521</v>
+        <v>0.0543309087199441</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0994624001761171</v>
+        <v>0.106873713085737</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0368570474022875</v>
+        <v>0.134312922549772</v>
       </c>
       <c r="J18" t="n">
-        <v>0.10586067456246</v>
+        <v>0.128376917420679</v>
       </c>
       <c r="K18" t="n">
-        <v>0.110492213293348</v>
+        <v>0.028385064623918</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0798735356605752</v>
+        <v>0.0227198660295696</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0379553581112163</v>
+        <v>0.0518847513843085</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0270463433534285</v>
+        <v>0.0471661801016807</v>
       </c>
     </row>
     <row r="19">
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0522772381872932</v>
+        <v>0.0545841109854348</v>
       </c>
       <c r="C19" t="n">
         <v>0.0353665337044412</v>
@@ -1293,7 +1293,7 @@
         <v>0.103983205919545</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0279671834712919</v>
+        <v>0.073635521038625</v>
       </c>
       <c r="M19" t="n">
         <v>0.0482708035461867</v>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.046402108730237</v>
+        <v>0.0485338137049143</v>
       </c>
       <c r="C20" t="n">
         <v>0.043591224847788</v>
@@ -1337,7 +1337,7 @@
         <v>0.00447932573070164</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0123797870710245</v>
+        <v>0.0736551380451126</v>
       </c>
       <c r="M20" t="n">
         <v>0.0237076256620335</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.036518695342157</v>
+        <v>0.0373910936289824</v>
       </c>
       <c r="C21" t="n">
         <v>0.0228915167886602</v>
@@ -1381,7 +1381,7 @@
         <v>0.00357557444302809</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0139351055208648</v>
       </c>
       <c r="M21" t="n">
         <v>0.0178326471517977</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0349132538572667</v>
+        <v>0.0320837830471826</v>
       </c>
       <c r="C22" t="n">
         <v>0.032983802141712</v>
@@ -1425,7 +1425,7 @@
         <v>0.020050072374391</v>
       </c>
       <c r="L22" t="n">
-        <v>0.056438313070839</v>
+        <v>0.0171701690727838</v>
       </c>
       <c r="M22" t="n">
         <v>0.156470093186873</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0276343071206548</v>
+        <v>0.029398661838201</v>
       </c>
       <c r="C23" t="n">
         <v>0.0312717855586328</v>
@@ -1469,7 +1469,7 @@
         <v>0.00210027016877873</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.0171701690727838</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020142920537777</v>
+        <v>0.0206702709338294</v>
       </c>
       <c r="C24" t="n">
         <v>0.0209280277646089</v>
@@ -1513,7 +1513,7 @@
         <v>0.0100720064937484</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00814249893543131</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="M24" t="n">
         <v>0.0117808033710454</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0168056022870727</v>
+        <v>0.0168103887908511</v>
       </c>
       <c r="C25" t="n">
         <v>0.0179081220975699</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00929692577686602</v>
+        <v>0.00976321614002131</v>
       </c>
       <c r="C26" t="n">
         <v>0.0100792995440829</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0083177492120678</v>
       </c>
       <c r="M26" t="n">
         <v>0.0191443833366935</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00896795485409601</v>
+        <v>0.00935481808159029</v>
       </c>
       <c r="C27" t="n">
         <v>0.0082794296281518</v>
@@ -1645,7 +1645,7 @@
         <v>0.00529982480827563</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.00213675213675214</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00757580324297464</v>
+        <v>0.00802548565690628</v>
       </c>
       <c r="C28" t="n">
         <v>0.00709888324520302</v>
@@ -1689,7 +1689,7 @@
         <v>0.0117066469690124</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0140563384725644</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
